--- a/BOILERS/rkurs/october.xlsx
+++ b/BOILERS/rkurs/october.xlsx
@@ -5,36 +5,27 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kocha\source\repos\itmo-viud\BOILERS\rkurs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/24bdfc58212c86b1/DATA/YAYA/rkurs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD21A06-F5E3-48EB-9E69-5ADEE458656F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_5345E5ACF753A2CD1015B92E039C3A7916E9B0CF" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="51">
   <si>
     <t>8:00p</t>
   </si>
@@ -187,9 +178,6 @@
   </si>
   <si>
     <t>code</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1021,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M69"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+      <selection activeCell="U38" sqref="U38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2089,7 +2077,7 @@
         <v>20191026</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>2019</v>
       </c>
@@ -2122,7 +2110,7 @@
         <v>20191026</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>2019</v>
       </c>
@@ -2155,7 +2143,7 @@
         <v>20191026</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>2019</v>
       </c>
@@ -2188,7 +2176,7 @@
         <v>20191026</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>2019</v>
       </c>
@@ -2221,7 +2209,7 @@
         <v>20191026</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>2019</v>
       </c>
@@ -2254,7 +2242,7 @@
         <v>20191027</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>2019</v>
       </c>
@@ -2287,7 +2275,7 @@
         <v>20191027</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>2019</v>
       </c>
@@ -2320,7 +2308,7 @@
         <v>20191027</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>2019</v>
       </c>
@@ -2353,7 +2341,7 @@
         <v>20191027</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>2019</v>
       </c>
@@ -2385,11 +2373,8 @@
         <f t="shared" si="0"/>
         <v>20191027</v>
       </c>
-      <c r="M41" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>2019</v>
       </c>
@@ -2422,7 +2407,7 @@
         <v>20191028</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>2019</v>
       </c>
@@ -2455,7 +2440,7 @@
         <v>20191028</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>2019</v>
       </c>
@@ -2488,7 +2473,7 @@
         <v>20191028</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>2019</v>
       </c>
@@ -2521,7 +2506,7 @@
         <v>20191028</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>2019</v>
       </c>
@@ -2554,7 +2539,7 @@
         <v>20191028</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>2019</v>
       </c>
@@ -2587,7 +2572,7 @@
         <v>20191028</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>2019</v>
       </c>
